--- a/hw2/best_oper_result/crossover-3.xlsx
+++ b/hw2/best_oper_result/crossover-3.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bacchus01\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bacchus01\Desktop\ga-2015-1\hw2\best_oper_result\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,6 +21,27 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+  <si>
+    <t>average</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>min</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>median</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stdev</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -119,9 +140,128 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ko-KR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="stdErr"/>
+            <c:noEndCap val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$21:$L$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$A$21:$K$21</c:f>
+              <c:f>Sheet1!$B$22:$L$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -163,8 +303,9 @@
           </c:val>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -172,16 +313,17 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="280812496"/>
-        <c:axId val="280813616"/>
+        <c:axId val="234377008"/>
+        <c:axId val="238151728"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="280812496"/>
+        <c:axId val="234377008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -218,7 +360,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="280813616"/>
+        <c:crossAx val="238151728"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -226,7 +368,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="280813616"/>
+        <c:axId val="238151728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -277,7 +419,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="280812496"/>
+        <c:crossAx val="234377008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -340,38 +482,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ko-KR"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -468,9 +579,51 @@
               <a:effectLst/>
             </c:spPr>
           </c:errBars>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$21:$L$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$A$22:$K$22</c:f>
+              <c:f>Sheet1!$B$23:$L$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -522,16 +675,17 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="270274608"/>
-        <c:axId val="269605840"/>
+        <c:axId val="238150608"/>
+        <c:axId val="238151168"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="270274608"/>
+        <c:axId val="238150608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -568,7 +722,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="269605840"/>
+        <c:crossAx val="238151168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -576,7 +730,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="269605840"/>
+        <c:axId val="238151168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -627,7 +781,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="270274608"/>
+        <c:crossAx val="238150608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1766,20 +1920,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>457200</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="차트 2"/>
+        <xdr:cNvPr id="4" name="차트 3"/>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -1798,20 +1952,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>457200</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="차트 4"/>
+        <xdr:cNvPr id="6" name="차트 5"/>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -2094,901 +2248,1091 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K24"/>
+  <dimension ref="A1:L28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T11" sqref="T11"/>
+      <selection activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1">
+    <row r="1" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B1">
         <v>429.35</v>
       </c>
-      <c r="B1">
+      <c r="C1">
         <v>426.73599999999999</v>
       </c>
-      <c r="C1">
+      <c r="D1">
         <v>426.548</v>
       </c>
-      <c r="D1">
+      <c r="E1">
         <v>432.71800000000002</v>
       </c>
-      <c r="E1">
+      <c r="F1">
         <v>423.18400000000003</v>
       </c>
-      <c r="F1">
+      <c r="G1">
         <v>436.21300000000002</v>
       </c>
-      <c r="G1">
+      <c r="H1">
         <v>421.661</v>
       </c>
-      <c r="H1">
+      <c r="I1">
         <v>423.41800000000001</v>
       </c>
-      <c r="I1">
+      <c r="J1">
         <v>433.22500000000002</v>
       </c>
-      <c r="J1">
+      <c r="K1">
         <v>423.16399999999999</v>
       </c>
-      <c r="K1">
+      <c r="L1">
         <v>433.87599999999998</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B2">
         <v>431.53500000000003</v>
       </c>
-      <c r="B2">
+      <c r="C2">
         <v>424.18599999999998</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>423.39</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>431.24099999999999</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>423.02</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>433.55500000000001</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>423.41399999999999</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>421.68400000000003</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>425.45299999999997</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>427.28699999999998</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>430.68400000000003</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B3">
         <v>423.17</v>
       </c>
-      <c r="B3">
+      <c r="C3">
         <v>425.47800000000001</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>422.19900000000001</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>431.363</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>422.43400000000003</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>435.84800000000001</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>422.072</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>421.94200000000001</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>424.60599999999999</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>424.68200000000002</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>429.95400000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B4">
         <v>428.59899999999999</v>
       </c>
-      <c r="B4">
+      <c r="C4">
         <v>422.24799999999999</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>421.82600000000002</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>431.89</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>422.00599999999997</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>434.92899999999997</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>424.90800000000002</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>424.09699999999998</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>426.13400000000001</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>421.577</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>425.59199999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B5">
         <v>427.42599999999999</v>
       </c>
-      <c r="B5">
+      <c r="C5">
         <v>426.66300000000001</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>421.87299999999999</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>428.18099999999998</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>425.89600000000002</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>433.786</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>426.959</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>424.36900000000003</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>429.04899999999998</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>422.00599999999997</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>426.73200000000003</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B6">
         <v>424.75099999999998</v>
       </c>
-      <c r="B6">
+      <c r="C6">
         <v>422.21300000000002</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>423.399</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>429.76100000000002</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>422.56400000000002</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>436.18</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>426.63799999999998</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>428.10500000000002</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>431.06599999999997</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>423.76499999999999</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>430.78300000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B7">
         <v>429.71800000000002</v>
       </c>
-      <c r="B7">
+      <c r="C7">
         <v>424.63499999999999</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>421.67899999999997</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>431.5</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>422.74299999999999</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>434.25200000000001</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>426.137</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>425.78399999999999</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>425.416</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>424.80200000000002</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>425.51299999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B8">
         <v>432.06</v>
       </c>
-      <c r="B8">
+      <c r="C8">
         <v>421.04300000000001</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>421.49400000000003</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>431.077</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>425.53199999999998</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>435.46499999999997</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>422.303</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>423.39299999999997</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>427.47500000000002</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>424.79700000000003</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>427.01100000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B9">
         <v>428.36</v>
       </c>
-      <c r="B9">
+      <c r="C9">
         <v>423.79399999999998</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>422.37799999999999</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>430.80500000000001</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>423.61900000000003</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>434.94600000000003</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>424.262</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>425.01600000000002</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>433.15</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>424.19099999999997</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>430.01600000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B10">
         <v>430.75700000000001</v>
       </c>
-      <c r="B10">
+      <c r="C10">
         <v>425.37200000000001</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>421.61900000000003</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>431.77199999999999</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>428.14699999999999</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>432.33300000000003</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>426.04500000000002</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>424.584</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>427.416</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>422.51499999999999</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>433.20499999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B11">
         <v>428.48500000000001</v>
       </c>
-      <c r="B11">
+      <c r="C11">
         <v>425.4</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>424.27800000000002</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>432.43</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>424.52</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>433.73599999999999</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>425.76799999999997</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>422.798</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>429.858</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>423.17099999999999</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>432.29500000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B12">
         <v>429.37299999999999</v>
       </c>
-      <c r="B12">
+      <c r="C12">
         <v>421.67899999999997</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>424.23</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>430.90800000000002</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>422.822</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>436.34500000000003</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>423.15699999999998</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>424.45400000000001</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>429.12299999999999</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>429.98099999999999</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>429.12299999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B13">
         <v>426.53899999999999</v>
       </c>
-      <c r="B13">
+      <c r="C13">
         <v>425.529</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>424.488</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>429.15699999999998</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>425.21300000000002</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>432.34500000000003</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>425.54700000000003</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>422.94400000000002</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>427.30799999999999</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>425.10700000000003</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>426.70699999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B14">
         <v>427.95100000000002</v>
       </c>
-      <c r="B14">
+      <c r="C14">
         <v>422.03100000000001</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>421.44200000000001</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>428.26900000000001</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>422.88200000000001</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>437.03500000000003</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>426.63400000000001</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>425.34100000000001</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>426.88499999999999</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>426.84300000000002</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>426.46899999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B15">
         <v>425.435</v>
       </c>
-      <c r="B15">
+      <c r="C15">
         <v>421.49900000000002</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>422.762</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>428.065</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>423.79500000000002</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>434.18700000000001</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>423.31799999999998</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>423.71800000000002</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>429.42399999999998</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>424.61</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>429.97300000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B16">
         <v>425.4</v>
       </c>
-      <c r="B16">
+      <c r="C16">
         <v>422.1</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>420.42500000000001</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>430.35700000000003</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>421.44200000000001</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>435.12400000000002</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>424.536</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>424.25599999999997</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>428.911</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>423.72</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>431.74799999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B17">
         <v>426.24799999999999</v>
       </c>
-      <c r="B17">
+      <c r="C17">
         <v>423.04</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>421.68099999999998</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>430.94900000000001</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>425.16</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>437.35899999999998</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>423.70800000000003</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>426.1</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>430.44499999999999</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>425.17599999999999</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>429.01100000000002</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B18">
         <v>425.16500000000002</v>
       </c>
-      <c r="B18">
+      <c r="C18">
         <v>424.42200000000003</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>423.346</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>429.88299999999998</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>424.51100000000002</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>436.28300000000002</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>425.12700000000001</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>423</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>424.53</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>424.298</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>426.322</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B19">
         <v>430.71300000000002</v>
       </c>
-      <c r="B19">
+      <c r="C19">
         <v>425.07299999999998</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>422.76600000000002</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>429.94600000000003</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>422.86799999999999</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>434.94600000000003</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>422.38400000000001</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>423.22</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>432.18900000000002</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>425.35300000000001</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>431.84199999999998</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B20">
         <v>431.49400000000003</v>
       </c>
-      <c r="B20">
+      <c r="C20">
         <v>424.5</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>422.35500000000002</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>432.52</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>424.26900000000001</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>434.88600000000002</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>422.50599999999997</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>423.82900000000001</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>425.61700000000002</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>421.86</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>428.72199999999998</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <f>AVERAGE(A1:A20)</f>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>2</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>4</v>
+      </c>
+      <c r="G21">
+        <v>5</v>
+      </c>
+      <c r="H21">
+        <v>6</v>
+      </c>
+      <c r="I21">
+        <v>7</v>
+      </c>
+      <c r="J21">
+        <v>8</v>
+      </c>
+      <c r="K21">
+        <v>9</v>
+      </c>
+      <c r="L21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22">
+        <f t="shared" ref="B22:L22" si="0">AVERAGE(B1:B20)</f>
         <v>428.12644999999992</v>
       </c>
-      <c r="B21">
-        <f t="shared" ref="B21:K21" si="0">AVERAGE(B1:B20)</f>
+      <c r="C22">
+        <f t="shared" si="0"/>
         <v>423.88205000000005</v>
       </c>
-      <c r="C21">
+      <c r="D22">
         <f t="shared" si="0"/>
         <v>422.70889999999997</v>
       </c>
-      <c r="D21">
+      <c r="E22">
         <f t="shared" si="0"/>
         <v>430.63959999999997</v>
       </c>
-      <c r="E21">
+      <c r="F22">
         <f t="shared" si="0"/>
         <v>423.83135000000004</v>
       </c>
-      <c r="F21">
+      <c r="G22">
         <f t="shared" si="0"/>
         <v>434.98765000000003</v>
       </c>
-      <c r="G21">
+      <c r="H22">
         <f t="shared" si="0"/>
         <v>424.35419999999993</v>
       </c>
-      <c r="H21">
+      <c r="I22">
         <f t="shared" si="0"/>
         <v>424.10260000000005</v>
       </c>
-      <c r="I21">
+      <c r="J22">
         <f t="shared" si="0"/>
         <v>428.36399999999992</v>
       </c>
-      <c r="J21">
+      <c r="K22">
         <f t="shared" si="0"/>
         <v>424.44525000000004</v>
       </c>
-      <c r="K21">
+      <c r="L22">
         <f t="shared" si="0"/>
         <v>429.27889999999996</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <f>MIN(A1:A20)</f>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23">
+        <f t="shared" ref="B23:L23" si="1">MIN(B1:B20)</f>
         <v>423.17</v>
       </c>
-      <c r="B22">
-        <f t="shared" ref="B22:K22" si="1">MIN(B1:B20)</f>
+      <c r="C23">
+        <f t="shared" si="1"/>
         <v>421.04300000000001</v>
       </c>
-      <c r="C22">
+      <c r="D23">
         <f t="shared" si="1"/>
         <v>420.42500000000001</v>
       </c>
-      <c r="D22">
+      <c r="E23">
         <f t="shared" si="1"/>
         <v>428.065</v>
       </c>
-      <c r="E22">
+      <c r="F23">
         <f t="shared" si="1"/>
         <v>421.44200000000001</v>
       </c>
-      <c r="F22">
+      <c r="G23">
         <f t="shared" si="1"/>
         <v>432.33300000000003</v>
       </c>
-      <c r="G22">
+      <c r="H23">
         <f t="shared" si="1"/>
         <v>421.661</v>
       </c>
-      <c r="H22">
+      <c r="I23">
         <f t="shared" si="1"/>
         <v>421.68400000000003</v>
       </c>
-      <c r="I22">
+      <c r="J23">
         <f t="shared" si="1"/>
         <v>424.53</v>
       </c>
-      <c r="J22">
+      <c r="K23">
         <f t="shared" si="1"/>
         <v>421.577</v>
       </c>
-      <c r="K22">
+      <c r="L23">
         <f t="shared" si="1"/>
         <v>425.51299999999998</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23">
-        <f>MEDIAN(A1:A20)</f>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>2</v>
+      </c>
+      <c r="B24">
+        <f t="shared" ref="B24:L24" si="2">MEDIAN(B1:B20)</f>
         <v>428.42250000000001</v>
       </c>
-      <c r="B23">
-        <f t="shared" ref="B23:K23" si="2">MEDIAN(B1:B20)</f>
+      <c r="C24">
+        <f t="shared" si="2"/>
         <v>424.30399999999997</v>
       </c>
-      <c r="C23">
+      <c r="D24">
         <f t="shared" si="2"/>
         <v>422.36649999999997</v>
       </c>
-      <c r="D23">
+      <c r="E24">
         <f t="shared" si="2"/>
         <v>430.92849999999999</v>
       </c>
-      <c r="E23">
+      <c r="F24">
         <f t="shared" si="2"/>
         <v>423.40150000000006</v>
       </c>
-      <c r="F23">
+      <c r="G24">
         <f t="shared" si="2"/>
         <v>434.94600000000003</v>
       </c>
-      <c r="G23">
+      <c r="H24">
         <f t="shared" si="2"/>
         <v>424.399</v>
       </c>
-      <c r="H23">
+      <c r="I24">
         <f t="shared" si="2"/>
         <v>423.96299999999997</v>
       </c>
-      <c r="I23">
+      <c r="J24">
         <f t="shared" si="2"/>
         <v>428.19299999999998</v>
       </c>
-      <c r="J23">
+      <c r="K24">
         <f t="shared" si="2"/>
         <v>424.45400000000001</v>
       </c>
-      <c r="K23">
+      <c r="L24">
         <f t="shared" si="2"/>
         <v>429.5385</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A24">
-        <f>STDEV(A1:A20)</f>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25">
+        <f t="shared" ref="B25:L25" si="3">STDEV(B1:B20)</f>
         <v>2.5547635481277213</v>
       </c>
-      <c r="B24">
-        <f t="shared" ref="B24:K24" si="3">STDEV(B1:B20)</f>
+      <c r="C25">
+        <f t="shared" si="3"/>
         <v>1.7737964778228725</v>
       </c>
-      <c r="C24">
+      <c r="D25">
         <f t="shared" si="3"/>
         <v>1.4068847220197644</v>
       </c>
-      <c r="D24">
+      <c r="E25">
         <f t="shared" si="3"/>
         <v>1.4200664328418626</v>
       </c>
-      <c r="E24">
+      <c r="F25">
         <f t="shared" si="3"/>
         <v>1.5950221669801001</v>
       </c>
-      <c r="F24">
+      <c r="G25">
         <f t="shared" si="3"/>
         <v>1.4055981410810559</v>
       </c>
-      <c r="G24">
+      <c r="H25">
         <f t="shared" si="3"/>
         <v>1.707225005982703</v>
       </c>
-      <c r="H24">
+      <c r="I25">
         <f t="shared" si="3"/>
         <v>1.4939431892249389</v>
       </c>
-      <c r="I24">
+      <c r="J25">
         <f t="shared" si="3"/>
         <v>2.7241079080566637</v>
       </c>
-      <c r="J24">
+      <c r="K25">
         <f t="shared" si="3"/>
         <v>1.9937525548572992</v>
       </c>
-      <c r="K24">
+      <c r="L25">
         <f t="shared" si="3"/>
         <v>2.5863288531898063</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <f>SUM(B22:L22)</f>
+        <v>4694.7209499999999</v>
+      </c>
+      <c r="B26">
+        <f>$A$26*10000/B22</f>
+        <v>109657.34422622103</v>
+      </c>
+      <c r="C26">
+        <f t="shared" ref="C26:L26" si="4">$A$26*10000/C22</f>
+        <v>110755.36107273237</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="4"/>
+        <v>111062.74199573277</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="4"/>
+        <v>109017.39993256543</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="4"/>
+        <v>110768.60996714848</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="4"/>
+        <v>107927.68369400832</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="4"/>
+        <v>110632.13113007956</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="4"/>
+        <v>110697.76393731138</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="4"/>
+        <v>109596.53355557425</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="4"/>
+        <v>110608.39884531632</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="4"/>
+        <v>109362.95611081748</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B27">
+        <f>INT(B26)</f>
+        <v>109657</v>
+      </c>
+      <c r="C27">
+        <f t="shared" ref="C27:L27" si="5">INT(C26)</f>
+        <v>110755</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="5"/>
+        <v>111062</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="5"/>
+        <v>109017</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="5"/>
+        <v>110768</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="5"/>
+        <v>107927</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="5"/>
+        <v>110632</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="5"/>
+        <v>110697</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="5"/>
+        <v>109596</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="5"/>
+        <v>110608</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="5"/>
+        <v>109362</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B28">
+        <f>B27</f>
+        <v>109657</v>
+      </c>
+      <c r="C28">
+        <f t="shared" ref="C28:L28" si="6">B28+C27</f>
+        <v>220412</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="6"/>
+        <v>331474</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="6"/>
+        <v>440491</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="6"/>
+        <v>551259</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="6"/>
+        <v>659186</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="6"/>
+        <v>769818</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="6"/>
+        <v>880515</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="6"/>
+        <v>990111</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="6"/>
+        <v>1100719</v>
+      </c>
+      <c r="L28">
+        <f t="shared" si="6"/>
+        <v>1210081</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/hw2/best_oper_result/crossover-3.xlsx
+++ b/hw2/best_oper_result/crossover-3.xlsx
@@ -1,22 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bacchus01\Desktop\ga-2015-1\hw2\best_oper_result\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11940"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -24,29 +19,36 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="7">
   <si>
-    <t>average</t>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Median</t>
+  </si>
+  <si>
+    <t>Standard deviation</t>
+  </si>
+  <si>
+    <t>Crossover</t>
+  </si>
+  <si>
+    <t>Crossover</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>min</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>median</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stdev</t>
+    <t>Stdev</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -59,6 +61,14 @@
       <sz val="8"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -85,9 +95,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -108,17 +121,7 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
   <c:lang val="ko-KR"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
@@ -126,7 +129,6 @@
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -139,7 +141,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
           <c:dLbls>
             <c:spPr>
               <a:noFill/>
@@ -171,13 +172,7 @@
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:layout/>
@@ -202,7 +197,6 @@
           <c:errBars>
             <c:errBarType val="both"/>
             <c:errValType val="stdErr"/>
-            <c:noEndCap val="0"/>
             <c:spPr>
               <a:noFill/>
               <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -303,29 +297,21 @@
           </c:val>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="outEnd"/>
-          <c:showLegendKey val="0"/>
           <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="234377008"/>
-        <c:axId val="238151728"/>
+        <c:axId val="61869056"/>
+        <c:axId val="61916672"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="234377008"/>
+        <c:axId val="61869056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -360,19 +346,17 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="238151728"/>
+        <c:crossAx val="61916672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="238151728"/>
+        <c:axId val="61916672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -390,7 +374,6 @@
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -419,7 +402,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="234377008"/>
+        <c:crossAx val="61869056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -433,7 +416,6 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -462,7 +444,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -470,17 +452,7 @@
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
   <c:lang val="ko-KR"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
@@ -488,7 +460,6 @@
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -501,7 +472,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
           <c:dLbls>
             <c:spPr>
               <a:noFill/>
@@ -533,13 +503,7 @@
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:layout/>
@@ -564,7 +528,6 @@
           <c:errBars>
             <c:errBarType val="both"/>
             <c:errValType val="stdErr"/>
-            <c:noEndCap val="0"/>
             <c:spPr>
               <a:noFill/>
               <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -665,29 +628,20 @@
           </c:val>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="outEnd"/>
-          <c:showLegendKey val="0"/>
           <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="238150608"/>
-        <c:axId val="238151168"/>
+        <c:axId val="61966208"/>
+        <c:axId val="61979264"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="238150608"/>
+        <c:axId val="61966208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -722,19 +676,17 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="238151168"/>
+        <c:crossAx val="61979264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="238151168"/>
+        <c:axId val="61979264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -751,8 +703,6 @@
           </c:spPr>
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -781,7 +731,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="238150608"/>
+        <c:crossAx val="61966208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -795,7 +745,6 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -824,1096 +773,10 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
-</file>
-
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2028,7 +891,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2063,7 +926,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2240,23 +1103,27 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L28" sqref="L28"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="9" customWidth="1"/>
+    <col min="2" max="12" width="7.625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:12">
       <c r="B1">
         <v>429.35</v>
       </c>
@@ -2291,7 +1158,7 @@
         <v>433.87599999999998</v>
       </c>
     </row>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:12">
       <c r="B2">
         <v>431.53500000000003</v>
       </c>
@@ -2326,7 +1193,7 @@
         <v>430.68400000000003</v>
       </c>
     </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:12">
       <c r="B3">
         <v>423.17</v>
       </c>
@@ -2361,7 +1228,7 @@
         <v>429.95400000000001</v>
       </c>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:12">
       <c r="B4">
         <v>428.59899999999999</v>
       </c>
@@ -2396,7 +1263,7 @@
         <v>425.59199999999998</v>
       </c>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:12">
       <c r="B5">
         <v>427.42599999999999</v>
       </c>
@@ -2431,7 +1298,7 @@
         <v>426.73200000000003</v>
       </c>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:12">
       <c r="B6">
         <v>424.75099999999998</v>
       </c>
@@ -2466,7 +1333,7 @@
         <v>430.78300000000002</v>
       </c>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:12">
       <c r="B7">
         <v>429.71800000000002</v>
       </c>
@@ -2501,7 +1368,7 @@
         <v>425.51299999999998</v>
       </c>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:12">
       <c r="B8">
         <v>432.06</v>
       </c>
@@ -2536,7 +1403,7 @@
         <v>427.01100000000002</v>
       </c>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:12">
       <c r="B9">
         <v>428.36</v>
       </c>
@@ -2571,7 +1438,7 @@
         <v>430.01600000000002</v>
       </c>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:12">
       <c r="B10">
         <v>430.75700000000001</v>
       </c>
@@ -2606,7 +1473,7 @@
         <v>433.20499999999998</v>
       </c>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:12">
       <c r="B11">
         <v>428.48500000000001</v>
       </c>
@@ -2641,7 +1508,7 @@
         <v>432.29500000000002</v>
       </c>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:12">
       <c r="B12">
         <v>429.37299999999999</v>
       </c>
@@ -2676,7 +1543,7 @@
         <v>429.12299999999999</v>
       </c>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:12">
       <c r="B13">
         <v>426.53899999999999</v>
       </c>
@@ -2711,7 +1578,7 @@
         <v>426.70699999999999</v>
       </c>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:12">
       <c r="B14">
         <v>427.95100000000002</v>
       </c>
@@ -2746,7 +1613,7 @@
         <v>426.46899999999999</v>
       </c>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:12">
       <c r="B15">
         <v>425.435</v>
       </c>
@@ -2781,7 +1648,7 @@
         <v>429.97300000000001</v>
       </c>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:12">
       <c r="B16">
         <v>425.4</v>
       </c>
@@ -2816,7 +1683,7 @@
         <v>431.74799999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12">
       <c r="B17">
         <v>426.24799999999999</v>
       </c>
@@ -2851,7 +1718,7 @@
         <v>429.01100000000002</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12">
       <c r="B18">
         <v>425.16500000000002</v>
       </c>
@@ -2886,7 +1753,7 @@
         <v>426.322</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12">
       <c r="B19">
         <v>430.71300000000002</v>
       </c>
@@ -2921,7 +1788,7 @@
         <v>431.84199999999998</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12">
       <c r="B20">
         <v>431.49400000000003</v>
       </c>
@@ -2956,7 +1823,10 @@
         <v>428.72199999999998</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12">
+      <c r="A21" t="s">
+        <v>5</v>
+      </c>
       <c r="B21">
         <v>0</v>
       </c>
@@ -2991,8 +1861,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+    <row r="22" spans="1:12">
+      <c r="A22" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B22">
@@ -3040,8 +1910,8 @@
         <v>429.27889999999996</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+    <row r="23" spans="1:12">
+      <c r="A23" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B23">
@@ -3089,8 +1959,8 @@
         <v>425.51299999999998</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
+    <row r="24" spans="1:12">
+      <c r="A24" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B24">
@@ -3138,9 +2008,9 @@
         <v>429.5385</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>3</v>
+    <row r="25" spans="1:12">
+      <c r="A25" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="B25">
         <f t="shared" ref="B25:L25" si="3">STDEV(B1:B20)</f>
@@ -3187,7 +2057,7 @@
         <v>2.5863288531898063</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12">
       <c r="A26">
         <f>SUM(B22:L22)</f>
         <v>4694.7209499999999</v>
@@ -3237,7 +2107,7 @@
         <v>109362.95611081748</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12">
       <c r="B27">
         <f>INT(B26)</f>
         <v>109657</v>
@@ -3283,7 +2153,7 @@
         <v>109362</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12">
       <c r="B28">
         <f>B27</f>
         <v>109657</v>
@@ -3327,6 +2197,221 @@
       <c r="L28">
         <f t="shared" si="6"/>
         <v>1210081</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>2</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>4</v>
+      </c>
+      <c r="G30">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B31">
+        <v>428.12644999999992</v>
+      </c>
+      <c r="C31">
+        <v>423.88205000000005</v>
+      </c>
+      <c r="D31">
+        <v>422.70889999999997</v>
+      </c>
+      <c r="E31">
+        <v>430.63959999999997</v>
+      </c>
+      <c r="F31">
+        <v>423.83135000000004</v>
+      </c>
+      <c r="G31">
+        <v>434.98765000000003</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32" t="s">
+        <v>1</v>
+      </c>
+      <c r="B32">
+        <v>423.17</v>
+      </c>
+      <c r="C32">
+        <v>421.04300000000001</v>
+      </c>
+      <c r="D32">
+        <v>420.42500000000001</v>
+      </c>
+      <c r="E32">
+        <v>428.065</v>
+      </c>
+      <c r="F32">
+        <v>421.44200000000001</v>
+      </c>
+      <c r="G32">
+        <v>432.33300000000003</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" t="s">
+        <v>2</v>
+      </c>
+      <c r="B33">
+        <v>428.42250000000001</v>
+      </c>
+      <c r="C33">
+        <v>424.30399999999997</v>
+      </c>
+      <c r="D33">
+        <v>422.36649999999997</v>
+      </c>
+      <c r="E33">
+        <v>430.92849999999999</v>
+      </c>
+      <c r="F33">
+        <v>423.40150000000006</v>
+      </c>
+      <c r="G33">
+        <v>434.94600000000003</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" t="s">
+        <v>3</v>
+      </c>
+      <c r="B34">
+        <v>2.5547635481277213</v>
+      </c>
+      <c r="C34">
+        <v>1.7737964778228725</v>
+      </c>
+      <c r="D34">
+        <v>1.4068847220197644</v>
+      </c>
+      <c r="E34">
+        <v>1.4200664328418626</v>
+      </c>
+      <c r="F34">
+        <v>1.5950221669801001</v>
+      </c>
+      <c r="G34">
+        <v>1.4055981410810559</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" t="s">
+        <v>4</v>
+      </c>
+      <c r="B35">
+        <v>6</v>
+      </c>
+      <c r="C35">
+        <v>7</v>
+      </c>
+      <c r="D35">
+        <v>8</v>
+      </c>
+      <c r="E35">
+        <v>9</v>
+      </c>
+      <c r="F35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" t="s">
+        <v>0</v>
+      </c>
+      <c r="B36">
+        <v>424.35419999999993</v>
+      </c>
+      <c r="C36">
+        <v>424.10260000000005</v>
+      </c>
+      <c r="D36">
+        <v>428.36399999999992</v>
+      </c>
+      <c r="E36">
+        <v>424.44525000000004</v>
+      </c>
+      <c r="F36">
+        <v>429.27889999999996</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" t="s">
+        <v>1</v>
+      </c>
+      <c r="B37">
+        <v>421.661</v>
+      </c>
+      <c r="C37">
+        <v>421.68400000000003</v>
+      </c>
+      <c r="D37">
+        <v>424.53</v>
+      </c>
+      <c r="E37">
+        <v>421.577</v>
+      </c>
+      <c r="F37">
+        <v>425.51299999999998</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" t="s">
+        <v>2</v>
+      </c>
+      <c r="B38">
+        <v>424.399</v>
+      </c>
+      <c r="C38">
+        <v>423.96299999999997</v>
+      </c>
+      <c r="D38">
+        <v>428.19299999999998</v>
+      </c>
+      <c r="E38">
+        <v>424.45400000000001</v>
+      </c>
+      <c r="F38">
+        <v>429.5385</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" t="s">
+        <v>3</v>
+      </c>
+      <c r="B39">
+        <v>1.707225005982703</v>
+      </c>
+      <c r="C39">
+        <v>1.4939431892249389</v>
+      </c>
+      <c r="D39">
+        <v>2.7241079080566637</v>
+      </c>
+      <c r="E39">
+        <v>1.9937525548572992</v>
+      </c>
+      <c r="F39">
+        <v>2.5863288531898063</v>
       </c>
     </row>
   </sheetData>
